--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1211.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1211.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.681861184409836</v>
+        <v>1.172335505485535</v>
       </c>
       <c r="B1">
-        <v>1.273967742124601</v>
+        <v>2.223217964172363</v>
       </c>
       <c r="C1">
-        <v>4.395539495669547</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.125092266997579</v>
+        <v>2.372478008270264</v>
       </c>
       <c r="E1">
-        <v>1.598900901824182</v>
+        <v>1.228035926818848</v>
       </c>
     </row>
   </sheetData>
